--- a/public/Oct11.xlsx
+++ b/public/Oct11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\MERN\fantasymanager\frontend\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03B0C27-D09E-48A1-87F2-9FE835381559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0FB41B-0A39-4B08-AB2F-88BD630F9FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="401">
   <si>
     <t>Title</t>
   </si>
@@ -1236,12 +1236,6 @@
   </si>
   <si>
     <t>NED - BOWL (0 pts)</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Details</t>
   </si>
 </sst>
 </file>
@@ -1618,15 +1612,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1636,14 +1630,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1653,16 +1641,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <f>VALUE(MID(C2, 2, LEN(C2)-6))</f>
-        <v>279</v>
-      </c>
-      <c r="E2" t="str">
-        <f>LEFT(B2, FIND(" (", B2) - 1)</f>
-        <v>NED - AR</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1672,16 +1652,8 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">VALUE(MID(C3, 2, LEN(C3)-6))</f>
-        <v>277</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="1">LEFT(B3, FIND(" (", B3) - 1)</f>
-        <v>PAK - WK</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1691,16 +1663,8 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>276</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>SL - WK</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1710,16 +1674,8 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>274</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ - AR</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1729,16 +1685,8 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>214</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ - BOWL</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1748,16 +1696,8 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>202</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>ENG - BAT</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1767,16 +1707,8 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ - AR</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1786,16 +1718,8 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>252</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ - WK</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1805,16 +1729,8 @@
       <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>ENG - BAT</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1824,16 +1740,8 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>187</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>SL - WK</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1843,16 +1751,8 @@
       <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>174</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v>IND - BOWL</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -1862,16 +1762,8 @@
       <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>184</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v>BAN - AR</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -1881,16 +1773,8 @@
       <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>177</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v>PAK - BOWL</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1900,16 +1784,8 @@
       <c r="C15" t="s">
         <v>44</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>166</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v>NED - AR</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1919,16 +1795,8 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>159</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v>PAK - BAT</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1938,16 +1806,8 @@
       <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>172</v>
-      </c>
-      <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v>PAK - BOWL</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1957,16 +1817,8 @@
       <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>173</v>
-      </c>
-      <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v>BAN - BOWL</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1976,16 +1828,8 @@
       <c r="C19" t="s">
         <v>56</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>152</v>
-      </c>
-      <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v>SA - AR</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1995,16 +1839,8 @@
       <c r="C20" t="s">
         <v>59</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>143</v>
-      </c>
-      <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v>BAN - AR</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>60</v>
       </c>
@@ -2014,16 +1850,8 @@
       <c r="C21" t="s">
         <v>62</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v>SA - BAT</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -2033,16 +1861,8 @@
       <c r="C22" t="s">
         <v>65</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v>BAN - AR</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>66</v>
       </c>
@@ -2052,16 +1872,8 @@
       <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v>SA - WK</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -2071,16 +1883,8 @@
       <c r="C24" t="s">
         <v>62</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v>AFG - AR</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -2090,16 +1894,8 @@
       <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="1"/>
-        <v>PAK - BAT</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -2109,16 +1905,8 @@
       <c r="C26" t="s">
         <v>68</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="1"/>
-        <v>BAN - WK</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -2128,16 +1916,8 @@
       <c r="C27" t="s">
         <v>62</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v>IND - BAT</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -2147,16 +1927,8 @@
       <c r="C28" t="s">
         <v>80</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="1"/>
-        <v>IND - BAT</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -2166,16 +1938,8 @@
       <c r="C29" t="s">
         <v>83</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="1"/>
-        <v>AFG - BAT</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -2185,16 +1949,8 @@
       <c r="C30" t="s">
         <v>86</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="1"/>
-        <v>ENG - WK</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -2204,16 +1960,8 @@
       <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="1"/>
-        <v>ENG - BOWL</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -2223,16 +1971,8 @@
       <c r="C32" t="s">
         <v>86</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="1"/>
-        <v>IND - BOWL</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -2242,16 +1982,8 @@
       <c r="C33" t="s">
         <v>94</v>
       </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="1"/>
-        <v>SL - AR</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -2261,16 +1993,8 @@
       <c r="C34" t="s">
         <v>97</v>
       </c>
-      <c r="D34">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="1"/>
-        <v>NED - BOWL</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -2280,16 +2004,8 @@
       <c r="C35" t="s">
         <v>100</v>
       </c>
-      <c r="D35">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" si="1"/>
-        <v>IND - AR</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -2299,16 +2015,8 @@
       <c r="C36" t="s">
         <v>100</v>
       </c>
-      <c r="D36">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" si="1"/>
-        <v>SL - BAT</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -2318,16 +2026,8 @@
       <c r="C37" t="s">
         <v>105</v>
       </c>
-      <c r="D37">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="1"/>
-        <v>IND - AR</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -2337,16 +2037,8 @@
       <c r="C38" t="s">
         <v>108</v>
       </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="1"/>
-        <v>SL - BOWL</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -2356,16 +2048,8 @@
       <c r="C39" t="s">
         <v>111</v>
       </c>
-      <c r="D39">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="1"/>
-        <v>ENG - WK</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -2375,16 +2059,8 @@
       <c r="C40" t="s">
         <v>105</v>
       </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="1"/>
-        <v>PAK - AR</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -2394,16 +2070,8 @@
       <c r="C41" t="s">
         <v>116</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="1"/>
-        <v>NED - BOWL</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -2413,16 +2081,8 @@
       <c r="C42" t="s">
         <v>119</v>
       </c>
-      <c r="D42">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ - WK</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -2432,16 +2092,8 @@
       <c r="C43" t="s">
         <v>122</v>
       </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ - BAT</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>123</v>
       </c>
@@ -2451,16 +2103,8 @@
       <c r="C44" t="s">
         <v>122</v>
       </c>
-      <c r="D44">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="1"/>
-        <v>ENG - AR</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -2470,16 +2114,8 @@
       <c r="C45" t="s">
         <v>127</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="1"/>
-        <v>PAK - BOWL</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>128</v>
       </c>
@@ -2489,16 +2125,8 @@
       <c r="C46" t="s">
         <v>130</v>
       </c>
-      <c r="D46">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="1"/>
-        <v>AUS - BOWL</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -2508,16 +2136,8 @@
       <c r="C47" t="s">
         <v>130</v>
       </c>
-      <c r="D47">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="1"/>
-        <v>PAK - AR</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -2527,16 +2147,8 @@
       <c r="C48" t="s">
         <v>135</v>
       </c>
-      <c r="D48">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="1"/>
-        <v>BAN - BAT</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -2546,16 +2158,8 @@
       <c r="C49" t="s">
         <v>135</v>
       </c>
-      <c r="D49">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="1"/>
-        <v>NED - WK</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>138</v>
       </c>
@@ -2565,16 +2169,8 @@
       <c r="C50" t="s">
         <v>140</v>
       </c>
-      <c r="D50">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="1"/>
-        <v>AFG - WK</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -2584,16 +2180,8 @@
       <c r="C51" t="s">
         <v>143</v>
       </c>
-      <c r="D51">
-        <f t="shared" si="0"/>
-        <v>86</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="1"/>
-        <v>SA - AR</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>144</v>
       </c>
@@ -2603,16 +2191,8 @@
       <c r="C52" t="s">
         <v>146</v>
       </c>
-      <c r="D52">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="1"/>
-        <v>ENG - AR</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>147</v>
       </c>
@@ -2622,16 +2202,8 @@
       <c r="C53" t="s">
         <v>149</v>
       </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="1"/>
-        <v>BAN - BOWL</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -2641,16 +2213,8 @@
       <c r="C54" t="s">
         <v>149</v>
       </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="1"/>
-        <v>NED - AR</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -2660,16 +2224,8 @@
       <c r="C55" t="s">
         <v>154</v>
       </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="1"/>
-        <v>ENG - BOWL</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -2679,16 +2235,8 @@
       <c r="C56" t="s">
         <v>157</v>
       </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ - AR</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
@@ -2698,16 +2246,8 @@
       <c r="C57" t="s">
         <v>160</v>
       </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="1"/>
-        <v>PAK - AR</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>161</v>
       </c>
@@ -2717,16 +2257,8 @@
       <c r="C58" t="s">
         <v>160</v>
       </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="1"/>
-        <v>SA - BOWL</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>163</v>
       </c>
@@ -2736,16 +2268,8 @@
       <c r="C59" t="s">
         <v>165</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="1"/>
-        <v>SL - BOWL</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -2755,16 +2279,8 @@
       <c r="C60" t="s">
         <v>168</v>
       </c>
-      <c r="D60">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="1"/>
-        <v>NZ - AR</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>169</v>
       </c>
@@ -2774,16 +2290,8 @@
       <c r="C61" t="s">
         <v>171</v>
       </c>
-      <c r="D61">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="1"/>
-        <v>NED - AR</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>172</v>
       </c>
@@ -2793,16 +2301,8 @@
       <c r="C62" t="s">
         <v>174</v>
       </c>
-      <c r="D62">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="1"/>
-        <v>NED - BOWL</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>175</v>
       </c>
@@ -2812,16 +2312,8 @@
       <c r="C63" t="s">
         <v>177</v>
       </c>
-      <c r="D63">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="1"/>
-        <v>SL - BAT</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -2831,16 +2323,8 @@
       <c r="C64" t="s">
         <v>180</v>
       </c>
-      <c r="D64">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="1"/>
-        <v>SA - WK</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>181</v>
       </c>
@@ -2850,16 +2334,8 @@
       <c r="C65" t="s">
         <v>180</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" si="1"/>
-        <v>BAN - BAT</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>183</v>
       </c>
@@ -2869,16 +2345,8 @@
       <c r="C66" t="s">
         <v>185</v>
       </c>
-      <c r="D66">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" si="1"/>
-        <v>AUS - BOWL</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>186</v>
       </c>
@@ -2888,16 +2356,8 @@
       <c r="C67" t="s">
         <v>188</v>
       </c>
-      <c r="D67">
-        <f t="shared" ref="D67:D130" si="2">VALUE(MID(C67, 2, LEN(C67)-6))</f>
-        <v>62</v>
-      </c>
-      <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="3">LEFT(B67, FIND(" (", B67) - 1)</f>
-        <v>SA - BOWL</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>189</v>
       </c>
@@ -2907,16 +2367,8 @@
       <c r="C68" t="s">
         <v>188</v>
       </c>
-      <c r="D68">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" si="3"/>
-        <v>SA - BOWL</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -2926,16 +2378,8 @@
       <c r="C69" t="s">
         <v>188</v>
       </c>
-      <c r="D69">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="3"/>
-        <v>ENG - BAT</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>192</v>
       </c>
@@ -2945,16 +2389,8 @@
       <c r="C70" t="s">
         <v>194</v>
       </c>
-      <c r="D70">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="3"/>
-        <v>ENG - AR</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -2964,16 +2400,8 @@
       <c r="C71" t="s">
         <v>194</v>
       </c>
-      <c r="D71">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="E71" t="str">
-        <f t="shared" si="3"/>
-        <v>AFG - BAT</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>197</v>
       </c>
@@ -2983,16 +2411,8 @@
       <c r="C72" t="s">
         <v>160</v>
       </c>
-      <c r="D72">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" si="3"/>
-        <v>BAN - WK</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>199</v>
       </c>
@@ -3002,16 +2422,8 @@
       <c r="C73" t="s">
         <v>201</v>
       </c>
-      <c r="D73">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="E73" t="str">
-        <f t="shared" si="3"/>
-        <v>AUS - BAT</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>202</v>
       </c>
@@ -3021,16 +2433,8 @@
       <c r="C74" t="s">
         <v>201</v>
       </c>
-      <c r="D74">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="E74" t="str">
-        <f t="shared" si="3"/>
-        <v>ENG - BOWL</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>204</v>
       </c>
@@ -3040,16 +2444,8 @@
       <c r="C75" t="s">
         <v>206</v>
       </c>
-      <c r="D75">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="E75" t="str">
-        <f t="shared" si="3"/>
-        <v>SA - BAT</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>207</v>
       </c>
@@ -3059,16 +2455,8 @@
       <c r="C76" t="s">
         <v>206</v>
       </c>
-      <c r="D76">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="E76" t="str">
-        <f t="shared" si="3"/>
-        <v>SL - AR</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>209</v>
       </c>
@@ -3078,16 +2466,8 @@
       <c r="C77" t="s">
         <v>211</v>
       </c>
-      <c r="D77">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="E77" t="str">
-        <f t="shared" si="3"/>
-        <v>AFG - AR</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>212</v>
       </c>
@@ -3097,16 +2477,8 @@
       <c r="C78" t="s">
         <v>214</v>
       </c>
-      <c r="D78">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="E78" t="str">
-        <f t="shared" si="3"/>
-        <v>AFG - BOWL</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>215</v>
       </c>
@@ -3116,16 +2488,8 @@
       <c r="C79" t="s">
         <v>217</v>
       </c>
-      <c r="D79">
-        <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="E79" t="str">
-        <f t="shared" si="3"/>
-        <v>AUS - BAT</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>218</v>
       </c>
@@ -3135,16 +2499,8 @@
       <c r="C80" t="s">
         <v>220</v>
       </c>
-      <c r="D80">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="E80" t="str">
-        <f t="shared" si="3"/>
-        <v>SL - BOWL</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>221</v>
       </c>
@@ -3154,16 +2510,8 @@
       <c r="C81" t="s">
         <v>223</v>
       </c>
-      <c r="D81">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="E81" t="str">
-        <f t="shared" si="3"/>
-        <v>SL - BOWL</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>224</v>
       </c>
@@ -3173,16 +2521,8 @@
       <c r="C82" t="s">
         <v>226</v>
       </c>
-      <c r="D82">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="E82" t="str">
-        <f t="shared" si="3"/>
-        <v>IND - BOWL</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>227</v>
       </c>
@@ -3192,16 +2532,8 @@
       <c r="C83" t="s">
         <v>229</v>
       </c>
-      <c r="D83">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="E83" t="str">
-        <f t="shared" si="3"/>
-        <v>AFG - BOWL</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>230</v>
       </c>
@@ -3211,16 +2543,8 @@
       <c r="C84" t="s">
         <v>232</v>
       </c>
-      <c r="D84">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="E84" t="str">
-        <f t="shared" si="3"/>
-        <v>AFG - AR</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>233</v>
       </c>
@@ -3230,16 +2554,8 @@
       <c r="C85" t="s">
         <v>235</v>
       </c>
-      <c r="D85">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="E85" t="str">
-        <f t="shared" si="3"/>
-        <v>BAN - BOWL</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>236</v>
       </c>
@@ -3249,16 +2565,8 @@
       <c r="C86" t="s">
         <v>235</v>
       </c>
-      <c r="D86">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="E86" t="str">
-        <f t="shared" si="3"/>
-        <v>AUS - BAT</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>238</v>
       </c>
@@ -3268,16 +2576,8 @@
       <c r="C87" t="s">
         <v>240</v>
       </c>
-      <c r="D87">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="E87" t="str">
-        <f t="shared" si="3"/>
-        <v>NED - BAT</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>241</v>
       </c>
@@ -3287,16 +2587,8 @@
       <c r="C88" t="s">
         <v>243</v>
       </c>
-      <c r="D88">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="E88" t="str">
-        <f t="shared" si="3"/>
-        <v>PAK - BAT</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>244</v>
       </c>
@@ -3306,16 +2598,8 @@
       <c r="C89" t="s">
         <v>246</v>
       </c>
-      <c r="D89">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="E89" t="str">
-        <f t="shared" si="3"/>
-        <v>IND - AR</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>247</v>
       </c>
@@ -3325,16 +2609,8 @@
       <c r="C90" t="s">
         <v>249</v>
       </c>
-      <c r="D90">
-        <f t="shared" si="2"/>
-        <v>46</v>
-      </c>
-      <c r="E90" t="str">
-        <f t="shared" si="3"/>
-        <v>PAK - BAT</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>250</v>
       </c>
@@ -3344,16 +2620,8 @@
       <c r="C91" t="s">
         <v>252</v>
       </c>
-      <c r="D91">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="E91" t="str">
-        <f t="shared" si="3"/>
-        <v>NED - AR</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>253</v>
       </c>
@@ -3363,16 +2631,8 @@
       <c r="C92" t="s">
         <v>255</v>
       </c>
-      <c r="D92">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="E92" t="str">
-        <f t="shared" si="3"/>
-        <v>PAK - BAT</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>256</v>
       </c>
@@ -3382,16 +2642,8 @@
       <c r="C93" t="s">
         <v>255</v>
       </c>
-      <c r="D93">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="E93" t="str">
-        <f t="shared" si="3"/>
-        <v>IND - BOWL</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>258</v>
       </c>
@@ -3401,16 +2653,8 @@
       <c r="C94" t="s">
         <v>260</v>
       </c>
-      <c r="D94">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="E94" t="str">
-        <f t="shared" si="3"/>
-        <v>SA - BOWL</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>261</v>
       </c>
@@ -3420,16 +2664,8 @@
       <c r="C95" t="s">
         <v>263</v>
       </c>
-      <c r="D95">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="E95" t="str">
-        <f t="shared" si="3"/>
-        <v>NED - BAT</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>264</v>
       </c>
@@ -3439,16 +2675,8 @@
       <c r="C96" t="s">
         <v>266</v>
       </c>
-      <c r="D96">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="E96" t="str">
-        <f t="shared" si="3"/>
-        <v>NED - AR</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>267</v>
       </c>
@@ -3458,16 +2686,8 @@
       <c r="C97" t="s">
         <v>266</v>
       </c>
-      <c r="D97">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="E97" t="str">
-        <f t="shared" si="3"/>
-        <v>BAN - BAT</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>269</v>
       </c>
@@ -3477,16 +2697,8 @@
       <c r="C98" t="s">
         <v>271</v>
       </c>
-      <c r="D98">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="E98" t="str">
-        <f t="shared" si="3"/>
-        <v>SL - BOWL</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>272</v>
       </c>
@@ -3496,16 +2708,8 @@
       <c r="C99" t="s">
         <v>246</v>
       </c>
-      <c r="D99">
-        <f t="shared" si="2"/>
-        <v>37</v>
-      </c>
-      <c r="E99" t="str">
-        <f t="shared" si="3"/>
-        <v>AFG - BOWL</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>274</v>
       </c>
@@ -3515,16 +2719,8 @@
       <c r="C100" t="s">
         <v>276</v>
       </c>
-      <c r="D100">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="E100" t="str">
-        <f t="shared" si="3"/>
-        <v>AFG - BOWL</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>277</v>
       </c>
@@ -3534,16 +2730,8 @@
       <c r="C101" t="s">
         <v>279</v>
       </c>
-      <c r="D101">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="E101" t="str">
-        <f t="shared" si="3"/>
-        <v>AUS - AR</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>280</v>
       </c>
@@ -3553,16 +2741,8 @@
       <c r="C102" t="s">
         <v>279</v>
       </c>
-      <c r="D102">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="E102" t="str">
-        <f t="shared" si="3"/>
-        <v>AUS - BOWL</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>282</v>
       </c>
@@ -3572,16 +2752,8 @@
       <c r="C103" t="s">
         <v>284</v>
       </c>
-      <c r="D103">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="E103" t="str">
-        <f t="shared" si="3"/>
-        <v>SL - WK</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>285</v>
       </c>
@@ -3591,16 +2763,8 @@
       <c r="C104" t="s">
         <v>284</v>
       </c>
-      <c r="D104">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="E104" t="str">
-        <f t="shared" si="3"/>
-        <v>IND - BAT</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>287</v>
       </c>
@@ -3610,16 +2774,8 @@
       <c r="C105" t="s">
         <v>289</v>
       </c>
-      <c r="D105">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="E105" t="str">
-        <f t="shared" si="3"/>
-        <v>AUS - AR</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>290</v>
       </c>
@@ -3629,16 +2785,8 @@
       <c r="C106" t="s">
         <v>292</v>
       </c>
-      <c r="D106">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-      <c r="E106" t="str">
-        <f t="shared" si="3"/>
-        <v>NZ - BOWL</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>293</v>
       </c>
@@ -3648,16 +2796,8 @@
       <c r="C107" t="s">
         <v>295</v>
       </c>
-      <c r="D107">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="E107" t="str">
-        <f t="shared" si="3"/>
-        <v>NED - BOWL</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>296</v>
       </c>
@@ -3667,16 +2807,8 @@
       <c r="C108" t="s">
         <v>298</v>
       </c>
-      <c r="D108">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="E108" t="str">
-        <f t="shared" si="3"/>
-        <v>AFG - BAT</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>299</v>
       </c>
@@ -3686,16 +2818,8 @@
       <c r="C109" t="s">
         <v>301</v>
       </c>
-      <c r="D109">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="E109" t="str">
-        <f t="shared" si="3"/>
-        <v>NZ - BAT</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>302</v>
       </c>
@@ -3705,16 +2829,8 @@
       <c r="C110" t="s">
         <v>304</v>
       </c>
-      <c r="D110">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="E110" t="str">
-        <f t="shared" si="3"/>
-        <v>NZ - BOWL</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>305</v>
       </c>
@@ -3724,16 +2840,8 @@
       <c r="C111" t="s">
         <v>307</v>
       </c>
-      <c r="D111">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E111" t="str">
-        <f t="shared" si="3"/>
-        <v>AUS - BOWL</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>308</v>
       </c>
@@ -3743,16 +2851,8 @@
       <c r="C112" t="s">
         <v>310</v>
       </c>
-      <c r="D112">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E112" t="str">
-        <f t="shared" si="3"/>
-        <v>IND - BAT</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>311</v>
       </c>
@@ -3762,16 +2862,8 @@
       <c r="C113" t="s">
         <v>310</v>
       </c>
-      <c r="D113">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="E113" t="str">
-        <f t="shared" si="3"/>
-        <v>IND - WK</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>313</v>
       </c>
@@ -3781,16 +2873,8 @@
       <c r="C114" t="s">
         <v>315</v>
       </c>
-      <c r="D114">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E114" t="str">
-        <f t="shared" si="3"/>
-        <v>BAN - AR</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>316</v>
       </c>
@@ -3800,16 +2884,8 @@
       <c r="C115" t="s">
         <v>318</v>
       </c>
-      <c r="D115">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="E115" t="str">
-        <f t="shared" si="3"/>
-        <v>NZ - AR</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>319</v>
       </c>
@@ -3819,16 +2895,8 @@
       <c r="C116" t="s">
         <v>321</v>
       </c>
-      <c r="D116">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E116" t="str">
-        <f t="shared" si="3"/>
-        <v>AUS - AR</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>322</v>
       </c>
@@ -3838,16 +2906,8 @@
       <c r="C117" t="s">
         <v>324</v>
       </c>
-      <c r="D117">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="E117" t="str">
-        <f t="shared" si="3"/>
-        <v>SA - BAT</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>325</v>
       </c>
@@ -3857,16 +2917,8 @@
       <c r="C118" t="s">
         <v>327</v>
       </c>
-      <c r="D118">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E118" t="str">
-        <f t="shared" si="3"/>
-        <v>NZ - BOWL</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>328</v>
       </c>
@@ -3876,16 +2928,8 @@
       <c r="C119" t="s">
         <v>327</v>
       </c>
-      <c r="D119">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E119" t="str">
-        <f t="shared" si="3"/>
-        <v>AUS - AR</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>330</v>
       </c>
@@ -3895,16 +2939,8 @@
       <c r="C120" t="s">
         <v>327</v>
       </c>
-      <c r="D120">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E120" t="str">
-        <f t="shared" si="3"/>
-        <v>NZ - BAT</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>332</v>
       </c>
@@ -3914,16 +2950,8 @@
       <c r="C121" t="s">
         <v>295</v>
       </c>
-      <c r="D121">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="E121" t="str">
-        <f t="shared" si="3"/>
-        <v>ENG - AR</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>334</v>
       </c>
@@ -3933,16 +2961,8 @@
       <c r="C122" t="s">
         <v>327</v>
       </c>
-      <c r="D122">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E122" t="str">
-        <f t="shared" si="3"/>
-        <v>NED - WK</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>336</v>
       </c>
@@ -3952,16 +2972,8 @@
       <c r="C123" t="s">
         <v>327</v>
       </c>
-      <c r="D123">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E123" t="str">
-        <f t="shared" si="3"/>
-        <v>ENG - AR</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>338</v>
       </c>
@@ -3971,16 +2983,8 @@
       <c r="C124" t="s">
         <v>327</v>
       </c>
-      <c r="D124">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E124" t="str">
-        <f t="shared" si="3"/>
-        <v>SA - BAT</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>340</v>
       </c>
@@ -3990,16 +2994,8 @@
       <c r="C125" t="s">
         <v>321</v>
       </c>
-      <c r="D125">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="E125" t="str">
-        <f t="shared" si="3"/>
-        <v>AUS - WK</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>342</v>
       </c>
@@ -4009,16 +3005,8 @@
       <c r="C126" t="s">
         <v>327</v>
       </c>
-      <c r="D126">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E126" t="str">
-        <f t="shared" si="3"/>
-        <v>BAN - WK</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>344</v>
       </c>
@@ -4028,16 +3016,8 @@
       <c r="C127" t="s">
         <v>327</v>
       </c>
-      <c r="D127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E127" t="str">
-        <f t="shared" si="3"/>
-        <v>IND - BAT</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>346</v>
       </c>
@@ -4047,16 +3027,8 @@
       <c r="C128" t="s">
         <v>327</v>
       </c>
-      <c r="D128">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E128" t="str">
-        <f t="shared" si="3"/>
-        <v>ENG - BAT</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>348</v>
       </c>
@@ -4066,16 +3038,8 @@
       <c r="C129" t="s">
         <v>327</v>
       </c>
-      <c r="D129">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E129" t="str">
-        <f t="shared" si="3"/>
-        <v>IND - BOWL</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>350</v>
       </c>
@@ -4085,16 +3049,8 @@
       <c r="C130" t="s">
         <v>327</v>
       </c>
-      <c r="D130">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E130" t="str">
-        <f t="shared" si="3"/>
-        <v>SA - BOWL</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>352</v>
       </c>
@@ -4104,16 +3060,8 @@
       <c r="C131" t="s">
         <v>327</v>
       </c>
-      <c r="D131">
-        <f t="shared" ref="D131:D161" si="4">VALUE(MID(C131, 2, LEN(C131)-6))</f>
-        <v>0</v>
-      </c>
-      <c r="E131" t="str">
-        <f t="shared" ref="E131:E161" si="5">LEFT(B131, FIND(" (", B131) - 1)</f>
-        <v>ENG - AR</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>353</v>
       </c>
@@ -4123,16 +3071,8 @@
       <c r="C132" t="s">
         <v>327</v>
       </c>
-      <c r="D132">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E132" t="str">
-        <f t="shared" si="5"/>
-        <v>SL - BAT</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>355</v>
       </c>
@@ -4142,16 +3082,8 @@
       <c r="C133" t="s">
         <v>327</v>
       </c>
-      <c r="D133">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E133" t="str">
-        <f t="shared" si="5"/>
-        <v>NZ - BOWL</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>356</v>
       </c>
@@ -4161,16 +3093,8 @@
       <c r="C134" t="s">
         <v>327</v>
       </c>
-      <c r="D134">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E134" t="str">
-        <f t="shared" si="5"/>
-        <v>SA - BOWL</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>357</v>
       </c>
@@ -4180,16 +3104,8 @@
       <c r="C135" t="s">
         <v>327</v>
       </c>
-      <c r="D135">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E135" t="str">
-        <f t="shared" si="5"/>
-        <v>BAN - BOWL</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>359</v>
       </c>
@@ -4199,16 +3115,8 @@
       <c r="C136" t="s">
         <v>327</v>
       </c>
-      <c r="D136">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E136" t="str">
-        <f t="shared" si="5"/>
-        <v>AUS - BAT</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>361</v>
       </c>
@@ -4218,16 +3126,8 @@
       <c r="C137" t="s">
         <v>327</v>
       </c>
-      <c r="D137">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E137" t="str">
-        <f t="shared" si="5"/>
-        <v>IND - AR</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>363</v>
       </c>
@@ -4237,16 +3137,8 @@
       <c r="C138" t="s">
         <v>327</v>
       </c>
-      <c r="D138">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E138" t="str">
-        <f t="shared" si="5"/>
-        <v>SL - BOWL</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>365</v>
       </c>
@@ -4256,16 +3148,8 @@
       <c r="C139" t="s">
         <v>327</v>
       </c>
-      <c r="D139">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E139" t="str">
-        <f t="shared" si="5"/>
-        <v>PAK - BOWL</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>367</v>
       </c>
@@ -4275,16 +3159,8 @@
       <c r="C140" t="s">
         <v>327</v>
       </c>
-      <c r="D140">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E140" t="str">
-        <f t="shared" si="5"/>
-        <v>AUS - BOWL</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>369</v>
       </c>
@@ -4294,16 +3170,8 @@
       <c r="C141" t="s">
         <v>327</v>
       </c>
-      <c r="D141">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E141" t="str">
-        <f t="shared" si="5"/>
-        <v>SA - AR</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>371</v>
       </c>
@@ -4313,16 +3181,8 @@
       <c r="C142" t="s">
         <v>327</v>
       </c>
-      <c r="D142">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E142" t="str">
-        <f t="shared" si="5"/>
-        <v>SL - AR</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>373</v>
       </c>
@@ -4332,16 +3192,8 @@
       <c r="C143" t="s">
         <v>327</v>
       </c>
-      <c r="D143">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E143" t="str">
-        <f t="shared" si="5"/>
-        <v>SL - BAT</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>374</v>
       </c>
@@ -4351,16 +3203,8 @@
       <c r="C144" t="s">
         <v>327</v>
       </c>
-      <c r="D144">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E144" t="str">
-        <f t="shared" si="5"/>
-        <v>SL - BOWL</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>375</v>
       </c>
@@ -4370,16 +3214,8 @@
       <c r="C145" t="s">
         <v>327</v>
       </c>
-      <c r="D145">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E145" t="str">
-        <f t="shared" si="5"/>
-        <v>SL - BOWL</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>376</v>
       </c>
@@ -4389,16 +3225,8 @@
       <c r="C146" t="s">
         <v>327</v>
       </c>
-      <c r="D146">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E146" t="str">
-        <f t="shared" si="5"/>
-        <v>AUS - WK</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>378</v>
       </c>
@@ -4408,16 +3236,8 @@
       <c r="C147" t="s">
         <v>327</v>
       </c>
-      <c r="D147">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E147" t="str">
-        <f t="shared" si="5"/>
-        <v>AFG - WK</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>380</v>
       </c>
@@ -4427,16 +3247,8 @@
       <c r="C148" t="s">
         <v>327</v>
       </c>
-      <c r="D148">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E148" t="str">
-        <f t="shared" si="5"/>
-        <v>BAN - AR</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>382</v>
       </c>
@@ -4446,16 +3258,8 @@
       <c r="C149" t="s">
         <v>327</v>
       </c>
-      <c r="D149">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E149" t="str">
-        <f t="shared" si="5"/>
-        <v>IND - BAT</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>383</v>
       </c>
@@ -4465,16 +3269,8 @@
       <c r="C150" t="s">
         <v>327</v>
       </c>
-      <c r="D150">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E150" t="str">
-        <f t="shared" si="5"/>
-        <v>BAN - BOWL</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>384</v>
       </c>
@@ -4484,16 +3280,8 @@
       <c r="C151" t="s">
         <v>327</v>
       </c>
-      <c r="D151">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E151" t="str">
-        <f t="shared" si="5"/>
-        <v>AFG - BAT</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>386</v>
       </c>
@@ -4503,16 +3291,8 @@
       <c r="C152" t="s">
         <v>327</v>
       </c>
-      <c r="D152">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E152" t="str">
-        <f t="shared" si="5"/>
-        <v>ENG - BOWL</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>388</v>
       </c>
@@ -4522,16 +3302,8 @@
       <c r="C153" t="s">
         <v>327</v>
       </c>
-      <c r="D153">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E153" t="str">
-        <f t="shared" si="5"/>
-        <v>AFG - BOWL</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>390</v>
       </c>
@@ -4541,16 +3313,8 @@
       <c r="C154" t="s">
         <v>327</v>
       </c>
-      <c r="D154">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E154" t="str">
-        <f t="shared" si="5"/>
-        <v>PAK - AR</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>392</v>
       </c>
@@ -4560,16 +3324,8 @@
       <c r="C155" t="s">
         <v>327</v>
       </c>
-      <c r="D155">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E155" t="str">
-        <f t="shared" si="5"/>
-        <v>AUS - AR</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>393</v>
       </c>
@@ -4579,16 +3335,8 @@
       <c r="C156" t="s">
         <v>327</v>
       </c>
-      <c r="D156">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E156" t="str">
-        <f t="shared" si="5"/>
-        <v>BAN - BAT</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>395</v>
       </c>
@@ -4598,16 +3346,8 @@
       <c r="C157" t="s">
         <v>327</v>
       </c>
-      <c r="D157">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E157" t="str">
-        <f t="shared" si="5"/>
-        <v>BAN - BAT</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>396</v>
       </c>
@@ -4617,16 +3357,8 @@
       <c r="C158" t="s">
         <v>327</v>
       </c>
-      <c r="D158">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E158" t="str">
-        <f t="shared" si="5"/>
-        <v>AFG - BOWL</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>397</v>
       </c>
@@ -4636,16 +3368,8 @@
       <c r="C159" t="s">
         <v>327</v>
       </c>
-      <c r="D159">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E159" t="str">
-        <f t="shared" si="5"/>
-        <v>BAN - BOWL</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>398</v>
       </c>
@@ -4655,16 +3379,8 @@
       <c r="C160" t="s">
         <v>327</v>
       </c>
-      <c r="D160">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E160" t="str">
-        <f t="shared" si="5"/>
-        <v>PAK - BOWL</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>399</v>
       </c>
@@ -4674,17 +3390,10 @@
       <c r="C161" t="s">
         <v>327</v>
       </c>
-      <c r="D161">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E161" t="str">
-        <f t="shared" si="5"/>
-        <v>NED - BOWL</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:C161" numberStoredAsText="1"/>
   </ignoredErrors>
